--- a/biology/Zoologie/Barisia_imbricata/Barisia_imbricata.xlsx
+++ b/biology/Zoologie/Barisia_imbricata/Barisia_imbricata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barisia imbricata est une espèce de sauriens de la famille des Anguidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barisia imbricata est une espèce de sauriens de la famille des Anguidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1],[2]. Elle se rencontre au Chihuahua, au Sinaloa, au Durango, au Coahuila, au Nuevo León, au San Luis Potosí, au Zacatecas, en Aguascalientes, au Jalisco, au Michoacán, au Guanajuato, au Querétaro, en Hidalgo, au Tlaxcala, au Veracruz, au Puebla, au Morelos, à Mexico et en Oaxaca.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique,. Elle se rencontre au Chihuahua, au Sinaloa, au Durango, au Coahuila, au Nuevo León, au San Luis Potosí, au Zacatecas, en Aguascalientes, au Jalisco, au Michoacán, au Guanajuato, au Querétaro, en Hidalgo, au Tlaxcala, au Veracruz, au Puebla, au Morelos, à Mexico et en Oaxaca.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sous-espèces Barisia imbricata ciliaris[3], Barisia imbricata jonesi[4] et Barisia imbricata planifrons[5] ont été élevées au rang d'espèce par Smith, Burg et Chiszar en 2002[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sous-espèces Barisia imbricata ciliaris, Barisia imbricata jonesi et Barisia imbricata planifrons ont été élevées au rang d'espèce par Smith, Burg et Chiszar en 2002.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wiegmann, 1828 : Beiträge zur Amphibienkunde. Isis von Oken, vol. 21, no 4, p. 364-383 (texte intégral).</t>
         </is>
